--- a/10th,11th,12th,3rd,4th,5th,6th,7th,8th,9th Attendance sheet.xlsx
+++ b/10th,11th,12th,3rd,4th,5th,6th,7th,8th,9th Attendance sheet.xlsx
@@ -49446,5 +49446,63 @@
     <mergeCell ref="A1832:F1832"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <rowBreaks count="56" manualBreakCount="56">
+    <brk id="34" min="0" max="16383" man="1"/>
+    <brk id="67" min="0" max="16383" man="1"/>
+    <brk id="100" min="0" max="16383" man="1"/>
+    <brk id="133" min="0" max="16383" man="1"/>
+    <brk id="166" min="0" max="16383" man="1"/>
+    <brk id="199" min="0" max="16383" man="1"/>
+    <brk id="232" min="0" max="16383" man="1"/>
+    <brk id="265" min="0" max="16383" man="1"/>
+    <brk id="298" min="0" max="16383" man="1"/>
+    <brk id="331" min="0" max="16383" man="1"/>
+    <brk id="364" min="0" max="16383" man="1"/>
+    <brk id="397" min="0" max="16383" man="1"/>
+    <brk id="430" min="0" max="16383" man="1"/>
+    <brk id="463" min="0" max="16383" man="1"/>
+    <brk id="496" min="0" max="16383" man="1"/>
+    <brk id="529" min="0" max="16383" man="1"/>
+    <brk id="562" min="0" max="16383" man="1"/>
+    <brk id="595" min="0" max="16383" man="1"/>
+    <brk id="628" min="0" max="16383" man="1"/>
+    <brk id="661" min="0" max="16383" man="1"/>
+    <brk id="694" min="0" max="16383" man="1"/>
+    <brk id="727" min="0" max="16383" man="1"/>
+    <brk id="760" min="0" max="16383" man="1"/>
+    <brk id="793" min="0" max="16383" man="1"/>
+    <brk id="826" min="0" max="16383" man="1"/>
+    <brk id="859" min="0" max="16383" man="1"/>
+    <brk id="892" min="0" max="16383" man="1"/>
+    <brk id="925" min="0" max="16383" man="1"/>
+    <brk id="958" min="0" max="16383" man="1"/>
+    <brk id="991" min="0" max="16383" man="1"/>
+    <brk id="1024" min="0" max="16383" man="1"/>
+    <brk id="1057" min="0" max="16383" man="1"/>
+    <brk id="1090" min="0" max="16383" man="1"/>
+    <brk id="1123" min="0" max="16383" man="1"/>
+    <brk id="1156" min="0" max="16383" man="1"/>
+    <brk id="1189" min="0" max="16383" man="1"/>
+    <brk id="1222" min="0" max="16383" man="1"/>
+    <brk id="1255" min="0" max="16383" man="1"/>
+    <brk id="1288" min="0" max="16383" man="1"/>
+    <brk id="1321" min="0" max="16383" man="1"/>
+    <brk id="1354" min="0" max="16383" man="1"/>
+    <brk id="1387" min="0" max="16383" man="1"/>
+    <brk id="1420" min="0" max="16383" man="1"/>
+    <brk id="1453" min="0" max="16383" man="1"/>
+    <brk id="1486" min="0" max="16383" man="1"/>
+    <brk id="1519" min="0" max="16383" man="1"/>
+    <brk id="1552" min="0" max="16383" man="1"/>
+    <brk id="1585" min="0" max="16383" man="1"/>
+    <brk id="1618" min="0" max="16383" man="1"/>
+    <brk id="1651" min="0" max="16383" man="1"/>
+    <brk id="1684" min="0" max="16383" man="1"/>
+    <brk id="1717" min="0" max="16383" man="1"/>
+    <brk id="1750" min="0" max="16383" man="1"/>
+    <brk id="1783" min="0" max="16383" man="1"/>
+    <brk id="1816" min="0" max="16383" man="1"/>
+    <brk id="1833" min="0" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>